--- a/docs/docs/colin-crud/CO-CPRD-Change-Registered-Office.xlsx
+++ b/docs/docs/colin-crud/CO-CPRD-Change-Registered-Office.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lear\docs\docs\colin-crud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2534734-674C-4D54-A85A-10DCDF9283D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF92A7-1000-43A4-87D4-201AA4A397E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" activeTab="1" xr2:uid="{18964051-F07B-47C2-9520-918D96739AE1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
   <si>
     <t>CORP_NUM</t>
   </si>
@@ -490,6 +490,12 @@
     <t xml:space="preserve">X
 (END_EVENT_ID to end a row that needs to be replaced with a new row)
 </t>
+  </si>
+  <si>
+    <t>NOTE: IMS Import follow the following rules:
+Uses same address table fields as directors.
+Office mailing and delivery_address are the same id. Same as directors.
+Only adding current registered office. Back filings have not been added yet.</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -580,11 +586,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -607,6 +624,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11F19A-667E-4C43-A9FE-BC746154C7F7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1270,19 @@
         <v>138</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/docs/docs/colin-crud/CO-CPRD-Change-Registered-Office.xlsx
+++ b/docs/docs/colin-crud/CO-CPRD-Change-Registered-Office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\lear\docs\docs\colin-crud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AF92A7-1000-43A4-87D4-201AA4A397E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E643FF56-A3EF-4A87-9DE8-0DB45EEA264D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" activeTab="1" xr2:uid="{18964051-F07B-47C2-9520-918D96739AE1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6192" xr2:uid="{18964051-F07B-47C2-9520-918D96739AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Scenarios" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <sheet name="LEDGER_TEXT" sheetId="6" r:id="rId6"/>
     <sheet name="OFFICE" sheetId="2" r:id="rId7"/>
     <sheet name="ADDRESS" sheetId="3" r:id="rId8"/>
+    <sheet name="ADDRESS_CIVIC_NO_SUFFIX_TYPE" sheetId="12" r:id="rId9"/>
+    <sheet name="ADDRESS_INSTALLATION_TYPE" sheetId="13" r:id="rId10"/>
+    <sheet name="ADDRESS_ROUTE_SERVICE_TYPE" sheetId="14" r:id="rId11"/>
+    <sheet name="ADDRESS_STREET_DIRECTION_TYPE" sheetId="15" r:id="rId12"/>
+    <sheet name="ADDRESS_STREET_TYPE" sheetId="16" r:id="rId13"/>
+    <sheet name="ADDRESS_UNIT_TYPE" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="546">
   <si>
     <t>CORP_NUM</t>
   </si>
@@ -315,14 +321,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applies to BC Co-ops and not Xpro Co-ops as xpros have a head office within BC and a head office outside of BC.
-Must have a mailing address and a delivery address.
-A delivery address is a physical address where papers can be served.
-The delivery address may include general delivery, post office box, rural route, site or comp. number as part of the address but must include a postal code, steret # and street name if one exists or a description that would readily allow a person to locate the directors if no street number and.or name exists.
-A decision will need to be made about which address field are populated.  Co-ops that have been imported from COBRS use ADDR_LINE_1, 2,3 CITY, PROVINCE, COUNTRY_TYP_CD, POSTAL_CODE.
-</t>
   </si>
   <si>
     <t xml:space="preserve">2. Correct Registered Office from a Previous Filing </t>
@@ -464,10 +462,6 @@
   </si>
   <si>
     <t>X-
-developers to definne the field mapping to the address table.</t>
-  </si>
-  <si>
-    <t>X-
 ADDR_ID, ADDR_LINE_1, ADDR_LINE_2, ADDR_LINE_3, CITY, PROVINCE, COUNTRY_TYP_CD, POSTAL_CD for Co-ops from Cobrs import.</t>
   </si>
   <si>
@@ -496,13 +490,1343 @@
 Uses same address table fields as directors.
 Office mailing and delivery_address are the same id. Same as directors.
 Only adding current registered office. Back filings have not been added yet.</t>
+  </si>
+  <si>
+    <t>X-
+ADDR_ID, PROVINCE, COUNTRY_TYP_CD, CITY,  ADDRESS_DESC(fully formatted address),  ADDRESS_DESC_SHORT(Street #, Street name, Stree suffix, street direction), DELIVERY_INSTRUCTIONS (used when no street address exists, so that leagl papers can be served), (UNIT_NO, UNIT_TYPE), CIVIC_NO(street #),  CIVIC_NO_SUFFIX,  STREET_NAME, STREET_TYPE, STREET_DIRECTION, LOCK_BOX_NO(PO BOX #) , INSTALLATION_TYPE,  INSTALLATION_NAME,  INSTALLATION_QUALIFIER, PROVINCE_STATE_NAME(populated for countries other than CA, US),ROUTE_SERVICE_TYPE, ROUTE_SERVICE_NO</t>
+  </si>
+  <si>
+    <t>Address Scenarios that may apply to Registered Office address.</t>
+  </si>
+  <si>
+    <t>A. Delivery address with street info.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eg.  APT. 101D, 841B SPRUCE ST NE
+      100 MILE HOUSE, BC
+     V0K 2E0
+       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert address
+(ADDR_ID, COUNTRY_TYP_CD, POSTAL_CD, PROVINCE, CITY, UNIT_NO, UNIT_TYPE, CIVIC_NO, CIVIC_NO_SUFFIX, STREET_NAME, STREET_TYPE, STREET_DIRECTION,ADDRESS_SHORT_DESC, ADDRESS_DESC)
+VALUES(noncorp_address-seq.nextval =&gt;ADDR_ID
+ 'CA'=&gt;COUNTRY_TYP_CD
+ ' V0K 2E0'=&gt; POSTAL_CD
+ 'BC' =&gt;PROVINCE
+ '100 MILE HOUSE' =&gt;CITY
+'101D'=&gt;UNIT_NO
+'APT'=&gt;UNIT_TYPE
+'841'=&gt;CIVIC_NO
+'B'=&gt;CIVIC_NO_SUFFIX
+'SPRUCE'=&gt;STREET_NAME
+'ST'=&gt;STREET_TYPE
+'NE'=&gt;STREET_DIRECTION
+'APT. 101D, 841B SPRUCE ST NE
+100 MILE HOUSE, BC V0K 2E0'=&gt;ADDRESS_DESC
+'APT. 101D, 841B SPRUCE ST NE-=&gt;ADDRESS_DESC_SHORT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applies to BC Co-ops and not Xpro Co-ops as xpros have a head office within BC and a head office outside of BC.
+Must have a mailing address and a delivery address. Must be BC addresses.
+A delivery address is a physical address where papers can be served.
+The delivery address may include general delivery instructions,  rural route, site and/ or comp. number as part of the address but must include a postal code, street # and street name if one exists or a description that would readily allow a person to locate the directors if no street number and.or name exists (general_delivery_instructions)
+A decision will need to be made about which address field are populated.  Co-ops that have been imported from COBRS use ADDR_LINE_1, 2,3 CITY, PROVINCE, COUNTRY_TYP_CD, POSTAL_CODE.
+"A company's registered office is the location where legal documents can be served. The delivery address must be for a location in BC that is accessible to the public between 9 a.m. and 4 p.m. on regular business days for the delivery of records".  This last sentence was taken from COLIN.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eg.  462 CEDAR ST
+       SITE 6 COMP 10
+       RR 4 STATION MAIN
+       100 MILE HOUSE, BC  V0K 2E0
+       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as above including:
+'SITE 6' =&gt;INSTALLATION_QUALIFIER
+'COMP 10'=&gt;INSTALLATION_NAME
+'RR'=&gt; ROUTE_SERVICE_TYPE
+4=&gt; ROUTE_SERVICE_NO
+'STN'=&gt;INSTALLATION_TYPE
+'MAIN'=&gt;INSTALLATION_NAME
+</t>
+  </si>
+  <si>
+    <t>eg. Mailing address can include a PO Box or other postal installation types</t>
+  </si>
+  <si>
+    <t>MARKETING DEPT.
+1425 JAMES ST.
+PO BOX 4001 STN A
+VICTORIA BC V8X 3X4</t>
+  </si>
+  <si>
+    <t>MARKETING_DEPT'=&gt;DELIVERY_INSTRUCTIONS
+'1425'=&gt;CIVIC_NO
+'JAMES'=&gt;STREET_NAME
+'PB'=&gt;ROUTE_SERVICE_TYPE
+'4001'=&gt;LOCK_BOX_NO
+'STN'=&gt;INSTALLATION_TYPE
+'A'=&gt;INSTALLATION_NAME
+'VICTORIA'=&gt;CITY
+'BC'=&gt;PROV
+'V8X 3X4'=&gt;POSTAL_CD</t>
+  </si>
+  <si>
+    <t>CIVIC_NO_SUFFIX_TYPE_CD</t>
+  </si>
+  <si>
+    <t>SHORT_DESC</t>
+  </si>
+  <si>
+    <t>FULL_DESC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>INSTALLATION_TYPE_CD</t>
+  </si>
+  <si>
+    <t>BDP</t>
+  </si>
+  <si>
+    <t>Bureau de Poste</t>
+  </si>
+  <si>
+    <t>CDO</t>
+  </si>
+  <si>
+    <t>Commercial Dealershi</t>
+  </si>
+  <si>
+    <t>Commercial Dealership Outlet</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>Community Mail Centr</t>
+  </si>
+  <si>
+    <t>Community Mail Centre</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Comptoir Service Pos</t>
+  </si>
+  <si>
+    <t>Comptoir Service Postal</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Letter Carrier Depot</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Post de Facteurs</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Post Office</t>
+  </si>
+  <si>
+    <t>RPO</t>
+  </si>
+  <si>
+    <t>Retail Postal Outlet</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>SUCC</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Concession Commercia</t>
+  </si>
+  <si>
+    <t>Concession Commerciale</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>Centre Postal Commun</t>
+  </si>
+  <si>
+    <t>Centre Postal Communcautaire</t>
+  </si>
+  <si>
+    <t>ROUTE_SERVICE_TYPE_CD</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>General Delivery</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Mobile Route</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Post Office Box</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Rural Route</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Suburban Service</t>
+  </si>
+  <si>
+    <t>STREET_DIRECTION_TYPE_CD</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nord-Ouest </t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>Northwest</t>
+  </si>
+  <si>
+    <t>Ouest</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sud-Ouest </t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>STREET_TYPE_CD</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>ABBEY</t>
+  </si>
+  <si>
+    <t>Abbey</t>
+  </si>
+  <si>
+    <t>ACRES</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>ALLEY</t>
+  </si>
+  <si>
+    <t>Alley</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>BEACH</t>
+  </si>
+  <si>
+    <t>BEND</t>
+  </si>
+  <si>
+    <t>BLVD</t>
+  </si>
+  <si>
+    <t>Boulevard</t>
+  </si>
+  <si>
+    <t>BYPASS</t>
+  </si>
+  <si>
+    <t>By-pass</t>
+  </si>
+  <si>
+    <t>BYWAY</t>
+  </si>
+  <si>
+    <t>Byway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre </t>
+  </si>
+  <si>
+    <t>CAMPUS</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>CAPE</t>
+  </si>
+  <si>
+    <t>Cape</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Carre</t>
+  </si>
+  <si>
+    <t>CARREF</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>Cul-de-sac</t>
+  </si>
+  <si>
+    <t>CERCLE</t>
+  </si>
+  <si>
+    <t>Cercle</t>
+  </si>
+  <si>
+    <t>CIR</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>CIRCT</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>COVE</t>
+  </si>
+  <si>
+    <t>Cove</t>
+  </si>
+  <si>
+    <t>CRNRS</t>
+  </si>
+  <si>
+    <t>Corners</t>
+  </si>
+  <si>
+    <t>CROSS</t>
+  </si>
+  <si>
+    <t>Crossing</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>DALE</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>DIVERS</t>
+  </si>
+  <si>
+    <t>Diversion</t>
+  </si>
+  <si>
+    <t>DOWNS</t>
+  </si>
+  <si>
+    <t>Downs</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>ESPL</t>
+  </si>
+  <si>
+    <t>Esplanade</t>
+  </si>
+  <si>
+    <t>ESTATE</t>
+  </si>
+  <si>
+    <t>Estates</t>
+  </si>
+  <si>
+    <t>EXPY</t>
+  </si>
+  <si>
+    <t>Expressway</t>
+  </si>
+  <si>
+    <t>EXTEN</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>FARM</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>FOREST</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>FWY</t>
+  </si>
+  <si>
+    <t>Freeway</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>GDNS</t>
+  </si>
+  <si>
+    <t>Gardens</t>
+  </si>
+  <si>
+    <t>GLADE</t>
+  </si>
+  <si>
+    <t>Glade</t>
+  </si>
+  <si>
+    <t>GLEN</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>GRNDS</t>
+  </si>
+  <si>
+    <t>Grounds</t>
+  </si>
+  <si>
+    <t>GROVE</t>
+  </si>
+  <si>
+    <t>Grove</t>
+  </si>
+  <si>
+    <t>HARBR</t>
+  </si>
+  <si>
+    <t>Harbour</t>
+  </si>
+  <si>
+    <t>HEATH</t>
+  </si>
+  <si>
+    <t>Heath</t>
+  </si>
+  <si>
+    <t>HGHLDS</t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
+    <t>HILL</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>HOLLOW</t>
+  </si>
+  <si>
+    <t>Hollow</t>
+  </si>
+  <si>
+    <t>HTS</t>
+  </si>
+  <si>
+    <t>Heights</t>
+  </si>
+  <si>
+    <t>INLET</t>
+  </si>
+  <si>
+    <t>Inlet</t>
+  </si>
+  <si>
+    <t>ISLAND</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>KNOLL</t>
+  </si>
+  <si>
+    <t>Knoll</t>
+  </si>
+  <si>
+    <t>LANDNG</t>
+  </si>
+  <si>
+    <t>Landing</t>
+  </si>
+  <si>
+    <t>LANE</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>LKOUT</t>
+  </si>
+  <si>
+    <t>Lookout</t>
+  </si>
+  <si>
+    <t>LMTS</t>
+  </si>
+  <si>
+    <t>Limits</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>MALL</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>MANOR</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>MAZE</t>
+  </si>
+  <si>
+    <t>Maze</t>
+  </si>
+  <si>
+    <t>MEADOW</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>MEWS</t>
+  </si>
+  <si>
+    <t>Mews</t>
+  </si>
+  <si>
+    <t>MOOR</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>MOUNT</t>
+  </si>
+  <si>
+    <t>Mount</t>
+  </si>
+  <si>
+    <t>MTN</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>ORCH</t>
+  </si>
+  <si>
+    <t>Orchard</t>
+  </si>
+  <si>
+    <t>PARADE</t>
+  </si>
+  <si>
+    <t>Parade</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Passage</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>PINES</t>
+  </si>
+  <si>
+    <t>Pines</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>PKY</t>
+  </si>
+  <si>
+    <t>Parkway</t>
+  </si>
+  <si>
+    <t>PLAZA</t>
+  </si>
+  <si>
+    <t>Plaza</t>
+  </si>
+  <si>
+    <t>POINTE</t>
+  </si>
+  <si>
+    <t>Pointe</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>PROM</t>
+  </si>
+  <si>
+    <t>Promenade</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>PTWAY</t>
+  </si>
+  <si>
+    <t>Pathway</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>QUAY</t>
+  </si>
+  <si>
+    <t>Quay</t>
+  </si>
+  <si>
+    <t>RAMP</t>
+  </si>
+  <si>
+    <t>Ramp</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>RIDGE</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>RISE</t>
+  </si>
+  <si>
+    <t>Rise</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>SUBDIV</t>
+  </si>
+  <si>
+    <t>Subdivision</t>
+  </si>
+  <si>
+    <t>TERR</t>
+  </si>
+  <si>
+    <t>Terrace</t>
+  </si>
+  <si>
+    <t>THICK</t>
+  </si>
+  <si>
+    <t>Thicket</t>
+  </si>
+  <si>
+    <t>TLINE</t>
+  </si>
+  <si>
+    <t>Town line</t>
+  </si>
+  <si>
+    <t>TOWERS</t>
+  </si>
+  <si>
+    <t>Towers</t>
+  </si>
+  <si>
+    <t>TRAIL</t>
+  </si>
+  <si>
+    <t>Trail</t>
+  </si>
+  <si>
+    <t>TRNABT</t>
+  </si>
+  <si>
+    <t>Turnabout</t>
+  </si>
+  <si>
+    <t>VALE</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>VILLAS</t>
+  </si>
+  <si>
+    <t>Villas</t>
+  </si>
+  <si>
+    <t>VILLGE</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>VISTA</t>
+  </si>
+  <si>
+    <t>Vista</t>
+  </si>
+  <si>
+    <t>WALK</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>WAY</t>
+  </si>
+  <si>
+    <t>Way</t>
+  </si>
+  <si>
+    <t>WHARF</t>
+  </si>
+  <si>
+    <t>Wharf</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>WYND</t>
+  </si>
+  <si>
+    <t>Wynd</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenue </t>
+  </si>
+  <si>
+    <t>CROIS</t>
+  </si>
+  <si>
+    <t>Croissant</t>
+  </si>
+  <si>
+    <t>VOIE</t>
+  </si>
+  <si>
+    <t>Voie</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>Chemin</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place </t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>RUE</t>
+  </si>
+  <si>
+    <t>Rue</t>
+  </si>
+  <si>
+    <t>ALLEE</t>
+  </si>
+  <si>
+    <t>Allee</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Autoroute</t>
+  </si>
+  <si>
+    <t>BOUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulevard </t>
+  </si>
+  <si>
+    <t>CHASE</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>CONC</t>
+  </si>
+  <si>
+    <t>Concession</t>
+  </si>
+  <si>
+    <t>COTE</t>
+  </si>
+  <si>
+    <t>Cote</t>
+  </si>
+  <si>
+    <t>COUR</t>
+  </si>
+  <si>
+    <t>Cour</t>
+  </si>
+  <si>
+    <t>ECH</t>
+  </si>
+  <si>
+    <t>Echangeur</t>
+  </si>
+  <si>
+    <t>ILE</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>Impasse</t>
+  </si>
+  <si>
+    <t>MONTEE</t>
+  </si>
+  <si>
+    <t>Montee</t>
+  </si>
+  <si>
+    <t>PARC</t>
+  </si>
+  <si>
+    <t>Parc</t>
+  </si>
+  <si>
+    <t>PLAT</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>QUAI</t>
+  </si>
+  <si>
+    <t>Quai</t>
+  </si>
+  <si>
+    <t>RANG</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>RDPT</t>
+  </si>
+  <si>
+    <t>Rond Point</t>
+  </si>
+  <si>
+    <t>RLE</t>
+  </si>
+  <si>
+    <t>Ruelle</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>Sentier</t>
+  </si>
+  <si>
+    <t>TSSE</t>
+  </si>
+  <si>
+    <t>Terasse</t>
+  </si>
+  <si>
+    <t>VIA</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>AVE</t>
+  </si>
+  <si>
+    <t>AVENUE</t>
+  </si>
+  <si>
+    <t>CRES</t>
+  </si>
+  <si>
+    <t>Crescent</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>HWY</t>
+  </si>
+  <si>
+    <t>Highway</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>COURS</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>UNIT_TYPE_CD</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>SUITE</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ADDRESS_CIVIC_NO_SUFFIX</t>
+  </si>
+  <si>
+    <t>X-CIVIC_NO_SUFFIX_TYPE_CD, SHORT_DESC,FULL_DESC</t>
+  </si>
+  <si>
+    <t>ADDRESS_INSTALLATION_TYPE</t>
+  </si>
+  <si>
+    <t>X-INSTALLATION_TYPE_CD, SHORT_DESC, FULL_DESC</t>
+  </si>
+  <si>
+    <t>ADDRESS_ROUTE_SERVICE_TYPE</t>
+  </si>
+  <si>
+    <t>X-ROUTE_SERVICE_TYPE_CD, SHORT_DESC, FULL_DESC</t>
+  </si>
+  <si>
+    <t>ADDRESS_STREET_DIRECTION_TYPE</t>
+  </si>
+  <si>
+    <t>X-STREET_DIRECTION_TYPE_CD, SHORT_DESC,FULL_DESC</t>
+  </si>
+  <si>
+    <t>ADDRESS_STREET_TYPE</t>
+  </si>
+  <si>
+    <t>X-STREET_TYPE_CD, SHORT_DESC,FULL_DESC</t>
+  </si>
+  <si>
+    <t>ADDRESS_UNIT_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X-UNIT_TYPE_CD, SHORT_DESC, FULL_DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Address rules taken from the forms:"Enter a complete physical address.  You may include general delivery,  rural route, site or comp. number as part of the address but the Corporate Registry cannot accept this information as a complete address.  You must also include a postal code.  If an area does not have a street name or number, provide a description that would readily allow a person to locate the office.
+Mailing address may also include post office box,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Canadian Addresses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be categorized into mailing, delivery.  Delivery addresses are used locate a specific place.  Delivery address are broken down into civic and rural.  Both address will have a street # and name.  Rural addresses may also include an RR, Site, Comp or no street # and/or name and only instrcutions to describe the location.  These address use the general_delivery_instructions to allow the user to describe the location. All need a postal code. All address may also include general_delivery+instructions for further information about drop-off location specifics.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">US addresses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can follow the same format as canadian addresses substituting the zip code for the postal_cd.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>International addresses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use teh same format as co-ops import as well as the PROVINCE_STATE_NAME</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,8 +1834,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +1865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +1939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,10 +1962,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEB8BCD-7F5F-4E3E-8A54-A1E4F07E9E4A}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,7 +2312,7 @@
     </row>
     <row r="2" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B2" s="11"/>
     </row>
@@ -979,160 +2329,160 @@
         <v>86</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1143,34 +2493,2179 @@
     </row>
     <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B41" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420AA6B6-145B-4559-861F-C33B7470ECAD}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B464007-678A-4F3C-A058-DB14307BFC73}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09EF90C-867A-4E51-9E00-F14CE307911D}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDBBDFC-BF84-4C3E-B7C3-792E603735C6}">
+  <dimension ref="A1:C146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>308</v>
+      </c>
+      <c r="B38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>310</v>
+      </c>
+      <c r="B39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" t="s">
+        <v>331</v>
+      </c>
+      <c r="C49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" t="s">
+        <v>337</v>
+      </c>
+      <c r="C52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B55" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>350</v>
+      </c>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>355</v>
+      </c>
+      <c r="C61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B63" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" t="s">
+        <v>361</v>
+      </c>
+      <c r="C64" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67" t="s">
+        <v>367</v>
+      </c>
+      <c r="C67" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>372</v>
+      </c>
+      <c r="B70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" t="s">
+        <v>379</v>
+      </c>
+      <c r="C73" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" t="s">
+        <v>385</v>
+      </c>
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" t="s">
+        <v>391</v>
+      </c>
+      <c r="C79" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80" t="s">
+        <v>393</v>
+      </c>
+      <c r="C80" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81" t="s">
+        <v>395</v>
+      </c>
+      <c r="C81" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>396</v>
+      </c>
+      <c r="B82" t="s">
+        <v>397</v>
+      </c>
+      <c r="C82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C83" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>400</v>
+      </c>
+      <c r="B84" t="s">
+        <v>401</v>
+      </c>
+      <c r="C84" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>402</v>
+      </c>
+      <c r="B85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C85" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86" t="s">
+        <v>405</v>
+      </c>
+      <c r="C86" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" t="s">
+        <v>407</v>
+      </c>
+      <c r="C87" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>408</v>
+      </c>
+      <c r="B88" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>410</v>
+      </c>
+      <c r="B89" t="s">
+        <v>411</v>
+      </c>
+      <c r="C89" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>412</v>
+      </c>
+      <c r="C90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>413</v>
+      </c>
+      <c r="B91" t="s">
+        <v>414</v>
+      </c>
+      <c r="C91" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>415</v>
+      </c>
+      <c r="B92" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>417</v>
+      </c>
+      <c r="B93" t="s">
+        <v>418</v>
+      </c>
+      <c r="C93" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>419</v>
+      </c>
+      <c r="B94" t="s">
+        <v>420</v>
+      </c>
+      <c r="C94" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>423</v>
+      </c>
+      <c r="B96" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>425</v>
+      </c>
+      <c r="B97" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>429</v>
+      </c>
+      <c r="B99" t="s">
+        <v>430</v>
+      </c>
+      <c r="C99" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>431</v>
+      </c>
+      <c r="B100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C100" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>433</v>
+      </c>
+      <c r="B101" t="s">
+        <v>434</v>
+      </c>
+      <c r="C101" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>435</v>
+      </c>
+      <c r="B102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C102" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>437</v>
+      </c>
+      <c r="B103" t="s">
+        <v>438</v>
+      </c>
+      <c r="C103" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>439</v>
+      </c>
+      <c r="B104" t="s">
+        <v>440</v>
+      </c>
+      <c r="C104" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>443</v>
+      </c>
+      <c r="B106" t="s">
+        <v>444</v>
+      </c>
+      <c r="C106" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" t="s">
+        <v>446</v>
+      </c>
+      <c r="C107" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>447</v>
+      </c>
+      <c r="B108" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>449</v>
+      </c>
+      <c r="B109" t="s">
+        <v>450</v>
+      </c>
+      <c r="C109" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>451</v>
+      </c>
+      <c r="B110" t="s">
+        <v>452</v>
+      </c>
+      <c r="C110" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>453</v>
+      </c>
+      <c r="B111" t="s">
+        <v>454</v>
+      </c>
+      <c r="C111" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>455</v>
+      </c>
+      <c r="B112" t="s">
+        <v>456</v>
+      </c>
+      <c r="C112" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113" t="s">
+        <v>458</v>
+      </c>
+      <c r="C113" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>459</v>
+      </c>
+      <c r="B114" t="s">
+        <v>460</v>
+      </c>
+      <c r="C114" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" t="s">
+        <v>462</v>
+      </c>
+      <c r="C115" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>463</v>
+      </c>
+      <c r="B116" t="s">
+        <v>464</v>
+      </c>
+      <c r="C116" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>465</v>
+      </c>
+      <c r="B117" t="s">
+        <v>466</v>
+      </c>
+      <c r="C117" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>467</v>
+      </c>
+      <c r="B118" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" t="s">
+        <v>472</v>
+      </c>
+      <c r="C120" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>473</v>
+      </c>
+      <c r="B121" t="s">
+        <v>474</v>
+      </c>
+      <c r="C121" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>475</v>
+      </c>
+      <c r="B122" t="s">
+        <v>476</v>
+      </c>
+      <c r="C122" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>477</v>
+      </c>
+      <c r="B123" t="s">
+        <v>478</v>
+      </c>
+      <c r="C123" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124" t="s">
+        <v>480</v>
+      </c>
+      <c r="C124" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>481</v>
+      </c>
+      <c r="B125" t="s">
+        <v>482</v>
+      </c>
+      <c r="C125" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>483</v>
+      </c>
+      <c r="B126" t="s">
+        <v>484</v>
+      </c>
+      <c r="C126" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>485</v>
+      </c>
+      <c r="B127" t="s">
+        <v>486</v>
+      </c>
+      <c r="C127" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" t="s">
+        <v>488</v>
+      </c>
+      <c r="C128" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>489</v>
+      </c>
+      <c r="B129" t="s">
+        <v>490</v>
+      </c>
+      <c r="C129" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>491</v>
+      </c>
+      <c r="B130" t="s">
+        <v>492</v>
+      </c>
+      <c r="C130" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131" t="s">
+        <v>494</v>
+      </c>
+      <c r="C131" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>495</v>
+      </c>
+      <c r="B132" t="s">
+        <v>496</v>
+      </c>
+      <c r="C132" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>497</v>
+      </c>
+      <c r="B133" t="s">
+        <v>498</v>
+      </c>
+      <c r="C133" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>499</v>
+      </c>
+      <c r="B134" t="s">
+        <v>500</v>
+      </c>
+      <c r="C134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>501</v>
+      </c>
+      <c r="B135" t="s">
+        <v>502</v>
+      </c>
+      <c r="C135" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>503</v>
+      </c>
+      <c r="B136" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>505</v>
+      </c>
+      <c r="B137" t="s">
+        <v>506</v>
+      </c>
+      <c r="C137" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>507</v>
+      </c>
+      <c r="B138" t="s">
+        <v>508</v>
+      </c>
+      <c r="C138" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>509</v>
+      </c>
+      <c r="B139" t="s">
+        <v>510</v>
+      </c>
+      <c r="C139" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>511</v>
+      </c>
+      <c r="B140" t="s">
+        <v>512</v>
+      </c>
+      <c r="C140" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>513</v>
+      </c>
+      <c r="B141" t="s">
+        <v>514</v>
+      </c>
+      <c r="C141" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>515</v>
+      </c>
+      <c r="B142" t="s">
+        <v>516</v>
+      </c>
+      <c r="C142" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>517</v>
+      </c>
+      <c r="B143" t="s">
+        <v>518</v>
+      </c>
+      <c r="C143" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>519</v>
+      </c>
+      <c r="B144" t="s">
+        <v>520</v>
+      </c>
+      <c r="C144" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>521</v>
+      </c>
+      <c r="B145" t="s">
+        <v>522</v>
+      </c>
+      <c r="C145" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>523</v>
+      </c>
+      <c r="B146" t="s">
+        <v>524</v>
+      </c>
+      <c r="C146" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E3E142-8B32-40FA-A03F-9833D316BDB8}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11F19A-667E-4C43-A9FE-BC746154C7F7}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,12 +4699,12 @@
         <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>93</v>
@@ -1217,7 +4712,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>93</v>
@@ -1225,10 +4720,10 @@
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>93</v>
@@ -1236,52 +4731,102 @@
     </row>
     <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>543</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1446,7 +4991,7 @@
         <v>101993027</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4">
         <v>43522.570833333331</v>
@@ -1469,7 +5014,7 @@
         <v>101993028</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4">
         <v>43545.570833333331</v>
@@ -1611,13 +5156,13 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
@@ -1631,7 +5176,7 @@
         <v>43522.570833333331</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1642,7 +5187,7 @@
         <v>43545.570833333331</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1717,7 +5262,7 @@
         <v>102926917</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1731,7 +5276,7 @@
         <v>101993028</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1743,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8499D9AA-27C6-420B-8983-55E0C02866E2}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,4 +5461,354 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575FAA8-0CB0-441D-B479-F2555B5FC9B3}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="19">
+        <v>43469</v>
+      </c>
+      <c r="C28" s="19">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="19">
+        <v>43467</v>
+      </c>
+      <c r="C29" s="19">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="19">
+        <v>43528</v>
+      </c>
+      <c r="C30" s="19">
+        <v>43528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>